--- a/input_data/scan_body/scan_body_unsh.xlsx
+++ b/input_data/scan_body/scan_body_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/scan_body/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/scan_body/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE1F61-69B3-084B-904C-1176B72CCEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE1165-C809-C148-9B68-D8DD7CC98448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>Отбор:</t>
   </si>
@@ -80,262 +80,277 @@
     <t>34203V2С Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>34003V3С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+  </si>
+  <si>
     <t>34043V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34233V3M4упЛ Скан боди LM (собств. разр.) Implantium, Impro, ti, МАТИР. / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34208V2С Скан боди LM (собств. разр.) Ankylos Multi-Unit, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34003V3С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+    <t>34002V3С Скан боди LM (собств. разр.) Ankylos C / X, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34005V3С Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34204V3С Скан боди LM (собств. разр.) Astra Uni 20 градусов, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34233V3С5опт Скан боди LM (собств. разр.) MegaGen AnyOne, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34012V3Сопт Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34233V3Сопт Скан боди LM (собств. разр.) Implantium, Impro, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34201V2СNопт Скан боди LM (собств. разр.) Nobel Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34064V3Сопт Скан боди LM (собств. разр.) Sky Bredent, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34008V3Сопт Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>34002V3С Скан боди LM (собств. разр.) Ankylos C / X, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+    <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+  </si>
+  <si>
+    <t>34003V3СупЛ Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, САТИН</t>
+  </si>
+  <si>
+    <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34015V3Сопт Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34003V2 Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3.</t>
+  </si>
+  <si>
+    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34037V3Сопт Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34007V3Сопт Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34032V3С Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34033V3СупЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34016V2упЛ Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34052V3С Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34005V2СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34003V3Сопт Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, САТИН</t>
+  </si>
+  <si>
+    <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34044V3С Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34034V3Сопт Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34032V3Сопт Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34007 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), нерж. сталь, V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34259V3С Скан боди LM (собств. разр.) Straumann Bone Level SC, ti, САТИН. V.1.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34033V3Сопт Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>34218V2Сопт Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>34005V3С Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34012V3Сопт Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34204V3С Скан боди LM (собств. разр.) Astra Uni 20 градусов, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34233V3Сопт Скан боди LM (собств. разр.) Implantium, Impro, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34201V2СOопт Скан боди LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Osstem), ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34233V3С5опт Скан боди LM (собств. разр.) MegaGen AnyOne, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34201V2СNопт Скан боди LM (собств. разр.) Nobel Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
-  </si>
-  <si>
-    <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34037V3Сопт Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34007V3Сопт Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34003V2 Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3.</t>
-  </si>
-  <si>
-    <t>34005V2СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34052V3С Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34044V3С Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+    <t>34032V3СупЛ Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34002V2упЛ Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34016V2упЛ Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34007 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), нерж. сталь, V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34032V3С Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34259V3С Скан боди LM (собств. разр.) Straumann Bone Level SC, ti, САТИН. V.1.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34043V3Сопт Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), Nobel Active WP (5.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34002V2 Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34006V3С Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34033V3С Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34233V3M4опт Скан боди LM (собств. разр.) Implantium, Impro, ti, МАТИР. / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34034V2С Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34010V3С Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34023V3С Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34037V3С Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34004V3С Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34064V3С Скан боди LM (собств. разр.) Sky Bredent, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34044V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34004V2 Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34026V3Сопт Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34011V3С Скан боди LM (собств. разр.) Niko 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34015V3С Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34030V3С Скан боди LM (собств. разр.) Xive 3.8, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34006V2 Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34032V2 Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), Nobel Active WP (5.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34002V2 Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34034V2С Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34033V3С Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34010V3С Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34004V3С Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34023V3С Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34037V3С Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34026V3Сопт Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34064V3С Скан боди LM (собств. разр.) Sky Bredent, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34011V3С Скан боди LM (собств. разр.) Niko 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34044V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34030V3С Скан боди LM (собств. разр.) Xive 3.8, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34004V2 Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34006V2 Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34032V2 Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34011V3Сопт Скан боди LM (собств. разр.) Niko 4.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34008V2С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>34028V3С Скан боди LM (собств. разр.) Nobel Active WP (5.5), Nobel Conical Connection WP (5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34024V3С Скан боди LM (собств. разр.) DIO SM NP (3.8), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34015V3С Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34010V3Сопт Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>34002V2опт Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34006V3С Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
   </si>
 </sst>
 </file>
@@ -813,7 +828,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +901,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -894,7 +909,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -952,13 +967,13 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1034,12 +1049,10 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
         <v>11</v>
@@ -1052,13 +1065,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1068,13 +1083,13 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1093,20 +1108,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1116,29 +1131,29 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1148,13 +1163,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1164,13 +1179,13 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1180,13 +1195,13 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1196,13 +1211,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1212,13 +1227,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1228,13 +1243,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1247,10 +1262,12 @@
         <v>6</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1260,12 +1277,10 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
         <v>5</v>
@@ -1278,13 +1293,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1310,10 +1325,12 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
+        <v>8</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="6">
         <v>4</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
         <v>4</v>
@@ -1326,18 +1343,16 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="6">
-        <v>4</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
@@ -1360,16 +1375,18 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="6">
+        <v>6</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>39</v>
       </c>
@@ -1440,12 +1457,10 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="6">
-        <v>6</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
         <v>3</v>
@@ -1458,18 +1473,16 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="6">
-        <v>5</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>45</v>
       </c>
@@ -1492,28 +1505,28 @@
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="6">
-        <v>5</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
         <v>2</v>
@@ -1542,10 +1555,12 @@
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E46" s="17"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="6">
+        <v>5</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
         <v>2</v>
@@ -1558,10 +1573,12 @@
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="17"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
         <v>2</v>
@@ -1574,12 +1591,10 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48" s="17"/>
-      <c r="F48" s="6">
-        <v>2</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
         <v>2</v>
@@ -1592,10 +1607,12 @@
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E49" s="17"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="6">
+        <v>5</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
         <v>2</v>
@@ -1640,12 +1657,10 @@
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="17"/>
-      <c r="F52" s="6">
-        <v>1</v>
-      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
         <v>2</v>
@@ -1690,29 +1705,29 @@
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1725,12 +1740,10 @@
         <v>2</v>
       </c>
       <c r="E57" s="17"/>
-      <c r="F57" s="6">
-        <v>1</v>
-      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1743,44 +1756,42 @@
         <v>2</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="6">
-        <v>1</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1790,13 +1801,13 @@
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1822,16 +1833,18 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="17"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
         <v>67</v>
       </c>
@@ -1863,19 +1876,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E66" s="17"/>
-      <c r="F66" s="6">
-        <v>7</v>
-      </c>
+      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
         <v>1</v>
@@ -1897,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
@@ -1977,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
         <v>76</v>
       </c>
@@ -2025,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
         <v>79</v>
       </c>
@@ -2073,37 +2084,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="17"/>
-      <c r="F79" s="6">
-        <v>1</v>
-      </c>
+      <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E80" s="17"/>
-      <c r="F80" s="6">
-        <v>8</v>
-      </c>
+      <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
         <v>1</v>
@@ -2125,23 +2132,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="17"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="6">
+        <v>1</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
         <v>86</v>
       </c>
@@ -2164,18 +2173,18 @@
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
         <v>88</v>
       </c>
@@ -2214,28 +2223,30 @@
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E88" s="17"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="6">
+        <v>3</v>
+      </c>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
         <v>1</v>
@@ -2280,10 +2291,12 @@
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="17"/>
-      <c r="F91" s="7"/>
+      <c r="F91" s="6">
+        <v>1</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
         <v>1</v>
@@ -2328,16 +2341,18 @@
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E94" s="17"/>
-      <c r="F94" s="7"/>
+      <c r="F94" s="6">
+        <v>8</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
         <v>98</v>
       </c>
@@ -2353,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
         <v>99</v>
       </c>
@@ -2385,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
         <v>101</v>
       </c>
@@ -2401,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
         <v>102</v>
       </c>
@@ -2433,26 +2448,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="13" t="s">
+    <row r="101" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="17">
+        <v>1</v>
+      </c>
+      <c r="E101" s="17"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="17">
+        <v>1</v>
+      </c>
+      <c r="E102" s="17"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="17">
+        <v>1</v>
+      </c>
+      <c r="E103" s="17"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="17">
+        <v>1</v>
+      </c>
+      <c r="E104" s="17"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="17">
+        <v>1</v>
+      </c>
+      <c r="E105" s="17"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="18">
-        <v>453</v>
-      </c>
-      <c r="E101" s="18"/>
-      <c r="F101" s="8">
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="18">
+        <v>454</v>
+      </c>
+      <c r="E106" s="18"/>
+      <c r="F106" s="8">
         <v>51</v>
       </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="8">
-        <v>402</v>
+      <c r="G106" s="9"/>
+      <c r="H106" s="8">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:E106"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="A99:C99"/>
@@ -2461,6 +2564,8 @@
     <mergeCell ref="D100:E100"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:E102"/>
     <mergeCell ref="A93:C93"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="A94:C94"/>

--- a/input_data/scan_body/scan_body_unsh.xlsx
+++ b/input_data/scan_body/scan_body_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/scan_body/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/scan_body/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE1165-C809-C148-9B68-D8DD7CC98448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE51C3B-5A4D-1944-9804-F79F075BDB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>Отбор:</t>
   </si>
@@ -65,15 +65,15 @@
     <t>34218V2С Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34201V2С Скан боди LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. O</t>
+    <t>34201V2С Скан боди LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Os</t>
+  </si>
+  <si>
+    <t>34007V3С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34022V2упЛ Скан боди LM (собств. разр.) Bego Semados 3.25/3.75, Bego Semados Platform Switch 3.25/3.75, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34007V3С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>34012V3С Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
@@ -83,22 +83,31 @@
     <t>34003V3С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
   </si>
   <si>
+    <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>34043V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>34208V2С Скан боди LM (собств. разр.) Ankylos Multi-Unit, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34002V3С Скан боди LM (собств. разр.) Ankylos C / X, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>34204V3С Скан боди LM (собств. разр.) Astra Uni 20 градусов, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>34005V3С Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34204V3С Скан боди LM (собств. разр.) Astra Uni 20 градусов, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+    <t>34201V2СNопт Скан боди LM (собств. разр.) Nobel Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34003V3Сопт Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, САТИН</t>
   </si>
   <si>
     <t>34233V3С5опт Скан боди LM (собств. разр.) MegaGen AnyOne, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
@@ -107,172 +116,187 @@
     <t>34012V3Сопт Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
+    <t>34218V2Сопт Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34007V3MупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, МАТИР. / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34252V3Сопт Скан боди LM (собств. разр.) Neodent Grand Morse, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34008V3MупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, МАТИР. / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34003V3M3упЛ Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, МАТИ</t>
+  </si>
+  <si>
+    <t>34203V2Сопт Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34005V3СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+  </si>
+  <si>
+    <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34017V3С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>34233V3Сопт Скан боди LM (собств. разр.) Implantium, Impro, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>34201V2СNопт Скан боди LM (собств. разр.) Nobel Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34064V3Сопт Скан боди LM (собств. разр.) Sky Bredent, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+    <t>34017V3Сопт Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34037V3Сопт Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34007V3Сопт Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>34008V3Сопт Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
-  </si>
-  <si>
-    <t>34003V3СупЛ Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, САТИН</t>
-  </si>
-  <si>
-    <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34259V3С Скан боди LM (собств. разр.) Straumann Bone Level SC, ti, САТИН. V.1.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34003V2 Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3.</t>
+  </si>
+  <si>
+    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34032V3С Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34007 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), нерж. сталь, V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34052V3С Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34233V3M4опт Скан боди LM (собств. разр.) Implantium, Impro, ti, МАТИР. / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34005V2СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34016V2упЛ Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34002V2упЛ Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34044V3С Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34037V3С Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34006V3С Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34043V3Сопт Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), Nobel Active WP (5.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34002V2 Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34033V3С Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34034V2С Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34010V3С Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34023V3С Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34016V3Сопт Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34004V3С Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34015V3Сопт Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34003V2 Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3.</t>
-  </si>
-  <si>
-    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34037V3Сопт Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34007V3Сопт Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34032V3С Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34033V3СупЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34016V2упЛ Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34052V3С Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34005V2СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34003V3Сопт Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, САТИН</t>
-  </si>
-  <si>
-    <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34044V3С Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34034V3Сопт Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34032V3Сопт Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34007 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), нерж. сталь, V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34259V3С Скан боди LM (собств. разр.) Straumann Bone Level SC, ti, САТИН. V.1.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34033V3Сопт Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34218V2Сопт Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34032V3СупЛ Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34002V2упЛ Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), Nobel Active WP (5.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34002V2 Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34006V3С Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34033V3С Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34233V3M4опт Скан боди LM (собств. разр.) Implantium, Impro, ti, МАТИР. / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34034V2С Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34010V3С Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34023V3С Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34037V3С Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
@@ -281,67 +305,52 @@
     <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34004V3С Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>34064V3С Скан боди LM (собств. разр.) Sky Bredent, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34026V3Сопт Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>34044V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>34004V2 Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34011V3С Скан боди LM (собств. разр.) Niko 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34026V3Сопт Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>34030V3С Скан боди LM (собств. разр.) Xive 3.8, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34011V3С Скан боди LM (собств. разр.) Niko 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+    <t>34006V2 Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34032V2 Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, V.2 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34015V3С Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34030V3С Скан боди LM (собств. разр.) Xive 3.8, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34006V2 Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34032V2 Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>34008V2С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34028V3С Скан боди LM (собств. разр.) Nobel Active WP (5.5), Nobel Conical Connection WP (5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
@@ -828,7 +837,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,15 +910,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>403</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -935,13 +944,13 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -983,15 +992,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="6">
-        <v>4</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1001,13 +1008,15 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6">
+        <v>4</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1049,13 +1058,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1065,12 +1074,10 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
         <v>11</v>
@@ -1083,10 +1090,12 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
         <v>11</v>
@@ -1243,13 +1252,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1259,12 +1268,10 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
         <v>5</v>
@@ -1293,13 +1300,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1309,13 +1316,13 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1325,15 +1332,13 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="6">
-        <v>4</v>
-      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1343,13 +1348,13 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1359,13 +1364,15 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1375,31 +1382,31 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1409,16 +1416,18 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="6">
+        <v>4</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>41</v>
       </c>
@@ -1473,29 +1482,29 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1505,31 +1514,29 @@
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="6">
-        <v>2</v>
-      </c>
+      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1539,13 +1546,13 @@
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1555,15 +1562,13 @@
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E46" s="17"/>
-      <c r="F46" s="6">
-        <v>5</v>
-      </c>
+      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1573,15 +1578,15 @@
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1591,13 +1596,13 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1607,15 +1612,13 @@
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E49" s="17"/>
-      <c r="F49" s="6">
-        <v>5</v>
-      </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1673,16 +1676,18 @@
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="17"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
         <v>57</v>
       </c>
@@ -1721,10 +1726,12 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E56" s="17"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="6">
+        <v>5</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
         <v>2</v>
@@ -1737,10 +1744,12 @@
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17">
+        <v>4</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="6">
         <v>2</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
         <v>2</v>
@@ -1753,10 +1762,12 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="6">
+        <v>5</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
         <v>2</v>
@@ -1810,41 +1821,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="17"/>
-      <c r="F63" s="6">
-        <v>1</v>
-      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
         <v>67</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
         <v>69</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
         <v>70</v>
       </c>
@@ -1931,16 +1940,18 @@
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
         <v>73</v>
       </c>
@@ -1972,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
         <v>75</v>
       </c>
@@ -2100,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
         <v>83</v>
       </c>
@@ -2139,12 +2150,10 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="17"/>
-      <c r="F82" s="6">
-        <v>1</v>
-      </c>
+      <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
         <v>1</v>
@@ -2157,10 +2166,12 @@
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="17"/>
-      <c r="F83" s="7"/>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
         <v>1</v>
@@ -2173,12 +2184,10 @@
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="17"/>
-      <c r="F84" s="6">
-        <v>1</v>
-      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
         <v>1</v>
@@ -2200,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
         <v>89</v>
       </c>
@@ -2234,25 +2243,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E88" s="17"/>
-      <c r="F88" s="6">
-        <v>3</v>
-      </c>
+      <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
         <v>92</v>
       </c>
@@ -2302,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
         <v>95</v>
       </c>
@@ -2341,11 +2348,11 @@
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
@@ -2359,16 +2366,18 @@
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E95" s="17"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="6">
+        <v>8</v>
+      </c>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
         <v>99</v>
       </c>
@@ -2384,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
         <v>100</v>
       </c>
@@ -2416,17 +2425,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" s="17"/>
-      <c r="F99" s="7"/>
+      <c r="F99" s="6">
+        <v>1</v>
+      </c>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
         <v>1</v>
@@ -2480,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
         <v>106</v>
       </c>
@@ -2496,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="s">
         <v>107</v>
       </c>
@@ -2528,26 +2539,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="13" t="s">
+    <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="17">
+        <v>1</v>
+      </c>
+      <c r="E106" s="17"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="17">
+        <v>1</v>
+      </c>
+      <c r="E107" s="17"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="17">
+        <v>1</v>
+      </c>
+      <c r="E108" s="17"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="18">
-        <v>454</v>
-      </c>
-      <c r="E106" s="18"/>
-      <c r="F106" s="8">
-        <v>51</v>
-      </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="8">
-        <v>403</v>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="18">
+        <v>484</v>
+      </c>
+      <c r="E109" s="18"/>
+      <c r="F109" s="8">
+        <v>52</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="8">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="213">
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="D109:E109"/>
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="A104:C104"/>
@@ -2556,6 +2619,8 @@
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="A106:C106"/>
     <mergeCell ref="D106:E106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:E107"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="A99:C99"/>

--- a/input_data/scan_body/scan_body_unsh.xlsx
+++ b/input_data/scan_body/scan_body_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/scan_body/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/scan_body/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE51C3B-5A4D-1944-9804-F79F075BDB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F187617B-CD0E-1F48-AD7D-963CA8CFDCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Отбор:</t>
   </si>
@@ -68,298 +68,277 @@
     <t>34201V2С Скан боди LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Os</t>
   </si>
   <si>
+    <t>34201V2MOупЛ Скан боди LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Osstem), ti, МАТИР. / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>34007V3С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34022V2упЛ Скан боди LM (собств. разр.) Bego Semados 3.25/3.75, Bego Semados Platform Switch 3.25/3.75, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>34203V2С Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34218V2MупЛ Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, МАТИР. / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34003V3С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+  </si>
+  <si>
     <t>34012V3С Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34203V2С Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34003V3С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+    <t>34043V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34043V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
     <t>34208V2С Скан боди LM (собств. разр.) Ankylos Multi-Unit, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34002V3С Скан боди LM (собств. разр.) Ankylos C / X, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>34005V3С Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>34204V3С Скан боди LM (собств. разр.) Astra Uni 20 градусов, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34005V3С Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+    <t>34007V3Сопт Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34052V3С Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34218V2Сопт Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>34201V2СNопт Скан боди LM (собств. разр.) Nobel Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
+    <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V3MупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, МАТИР. / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+  </si>
+  <si>
+    <t>34201V2СDопт Скан боди LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS), ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34017V3С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34233V3Сопт Скан боди LM (собств. разр.) Implantium, Impro, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34037V3Сопт Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34259V3С Скан боди LM (собств. разр.) Straumann Bone Level SC, ti, САТИН. V.1.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V3Сопт Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34003V2 Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3.</t>
+  </si>
+  <si>
+    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34007 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), нерж. сталь, V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34027V3Сопт Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34003V3Сопт Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, САТИН</t>
-  </si>
-  <si>
-    <t>34233V3С5опт Скан боди LM (собств. разр.) MegaGen AnyOne, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34012V3Сопт Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34218V2Сопт Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34007V3MупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, МАТИР. / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34252V3Сопт Скан боди LM (собств. разр.) Neodent Grand Morse, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34008V3MупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, МАТИР. / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34003V3M3упЛ Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, МАТИ</t>
-  </si>
-  <si>
-    <t>34203V2Сопт Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34005V3СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
-  </si>
-  <si>
-    <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34017V3С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34233V3Сопт Скан боди LM (собств. разр.) Implantium, Impro, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34017V3Сопт Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34037V3Сопт Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34007V3Сопт Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34008V3Сопт Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34259V3С Скан боди LM (собств. разр.) Straumann Bone Level SC, ti, САТИН. V.1.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34003V2 Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3.</t>
-  </si>
-  <si>
-    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>34032V3С Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34007 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), нерж. сталь, V.1 / БЕЗ ВИНТА</t>
+    <t>34002V3Сопт Скан боди LM (собств. разр.) Ankylos C / X, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34052V3С Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34233V3M4опт Скан боди LM (собств. разр.) Implantium, Impro, ti, МАТИР. / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34005V2СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>34026V3Сопт Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34002V2упЛ Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34044V3С Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>34016V2упЛ Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34002V2упЛ Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34044V3С Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34002V2 Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34241С Скан боди LM (собств. разр.) Straumann Bone Level Multi-Unit NC/RC (3.3/4.1/4.8), ti, САТИН. V.1.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), Nobel Active WP (5.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34037V3С Скан боди LM (собств. разр.) ICX Medentis, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34023V3С Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34010V3С Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34033V3С Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34034V2С Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34004V3С Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34064V3С Скан боди LM (собств. разр.) Sky Bredent, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34044V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34004V2 Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34011V3С Скан боди LM (собств. разр.) Niko 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34030V3С Скан боди LM (собств. разр.) Xive 3.8, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34015V3С Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34006V2 Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34032V2 Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34028V3С Скан боди LM (собств. разр.) Nobel Active WP (5.5), Nobel Conical Connection WP (5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34024V3С Скан боди LM (собств. разр.) DIO SM NP (3.8), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34002V2опт Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
     <t>34006V3С Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34043V3Сопт Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), Nobel Active WP (5.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34002V2 Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34033V3С Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34034V2С Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34010V3С Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34023V3С Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34016V3Сопт Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34004V3С Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34015V3Сопт Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34064V3С Скан боди LM (собств. разр.) Sky Bredent, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34026V3Сопт Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34044V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34004V2 Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34011V3С Скан боди LM (собств. разр.) Niko 4.5, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34030V3С Скан боди LM (собств. разр.) Xive 3.8, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34006V2 Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34032V2 Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34015V3С Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34008V2С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34028V3С Скан боди LM (собств. разр.) Nobel Active WP (5.5), Nobel Conical Connection WP (5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34024V3С Скан боди LM (собств. разр.) DIO SM NP (3.8), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34002V2опт Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
 </sst>
 </file>
@@ -837,7 +816,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,15 +889,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -928,13 +907,13 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -944,13 +923,13 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -960,13 +939,13 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -992,13 +971,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1008,12 +987,10 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="6">
-        <v>4</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
         <v>16</v>
@@ -1026,13 +1003,15 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6">
+        <v>4</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1042,13 +1021,13 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1058,13 +1037,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1074,13 +1053,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1093,12 +1072,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1108,29 +1085,31 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1140,29 +1119,29 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1172,13 +1151,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1188,13 +1167,13 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1204,29 +1183,29 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1284,10 +1263,12 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
         <v>5</v>
@@ -1300,13 +1281,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1316,13 +1297,13 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1332,13 +1313,13 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1348,13 +1329,15 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="6">
+        <v>4</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1364,33 +1347,29 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1400,34 +1379,32 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="6">
-        <v>4</v>
-      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>41</v>
       </c>
@@ -1482,16 +1459,18 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="6">
+        <v>6</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>45</v>
       </c>
@@ -1530,13 +1509,13 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1546,13 +1525,13 @@
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1562,13 +1541,13 @@
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1578,15 +1557,13 @@
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E47" s="17"/>
-      <c r="F47" s="6">
-        <v>6</v>
-      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1596,13 +1573,13 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1612,13 +1589,13 @@
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1628,10 +1605,12 @@
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="17"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
         <v>2</v>
@@ -1644,10 +1623,12 @@
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E51" s="17"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="6">
+        <v>5</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
         <v>2</v>
@@ -1660,10 +1641,12 @@
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E52" s="17"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="6">
+        <v>5</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
         <v>2</v>
@@ -1676,18 +1659,16 @@
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="17"/>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
         <v>57</v>
       </c>
@@ -1726,12 +1707,10 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E56" s="17"/>
-      <c r="F56" s="6">
-        <v>5</v>
-      </c>
+      <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
         <v>2</v>
@@ -1744,12 +1723,10 @@
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57" s="17"/>
-      <c r="F57" s="6">
-        <v>2</v>
-      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
         <v>2</v>
@@ -1762,31 +1739,31 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1796,13 +1773,13 @@
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1815,29 +1792,31 @@
         <v>2</v>
       </c>
       <c r="E61" s="17"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
         <v>66</v>
       </c>
@@ -1885,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
         <v>69</v>
       </c>
@@ -1933,25 +1912,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="6">
-        <v>1</v>
-      </c>
+      <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
         <v>73</v>
       </c>
@@ -1983,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
         <v>75</v>
       </c>
@@ -1999,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
         <v>76</v>
       </c>
@@ -2054,16 +2031,18 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="17"/>
-      <c r="F76" s="7"/>
+      <c r="F76" s="6">
+        <v>1</v>
+      </c>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
         <v>80</v>
       </c>
@@ -2095,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
         <v>82</v>
       </c>
@@ -2134,10 +2113,12 @@
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E81" s="17"/>
-      <c r="F81" s="7"/>
+      <c r="F81" s="6">
+        <v>7</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
         <v>1</v>
@@ -2150,10 +2131,12 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="17"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="6">
+        <v>1</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
         <v>1</v>
@@ -2166,18 +2149,16 @@
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="17"/>
-      <c r="F83" s="6">
-        <v>1</v>
-      </c>
+      <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
         <v>87</v>
       </c>
@@ -2200,16 +2181,18 @@
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85" s="17"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="6">
+        <v>3</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
         <v>89</v>
       </c>
@@ -2232,18 +2215,18 @@
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
         <v>91</v>
       </c>
@@ -2266,16 +2249,18 @@
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" s="17"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A90" s="16" t="s">
         <v>93</v>
       </c>
@@ -2298,12 +2283,10 @@
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="17"/>
-      <c r="F91" s="6">
-        <v>1</v>
-      </c>
+      <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
         <v>1</v>
@@ -2341,37 +2324,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94" s="17"/>
-      <c r="F94" s="6">
-        <v>3</v>
-      </c>
+      <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E95" s="17"/>
-      <c r="F95" s="6">
-        <v>8</v>
-      </c>
+      <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
         <v>1</v>
@@ -2393,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
         <v>100</v>
       </c>
@@ -2425,25 +2404,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" s="17"/>
-      <c r="F99" s="6">
-        <v>1</v>
-      </c>
+      <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
         <v>103</v>
       </c>
@@ -2475,152 +2452,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="17">
-        <v>1</v>
-      </c>
-      <c r="E102" s="17"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="17">
-        <v>1</v>
-      </c>
-      <c r="E103" s="17"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="17">
-        <v>1</v>
-      </c>
-      <c r="E104" s="17"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="17">
-        <v>1</v>
-      </c>
-      <c r="E105" s="17"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="17">
-        <v>1</v>
-      </c>
-      <c r="E106" s="17"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="17">
-        <v>1</v>
-      </c>
-      <c r="E107" s="17"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="17">
-        <v>1</v>
-      </c>
-      <c r="E108" s="17"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="13" t="s">
+    <row r="102" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="18">
-        <v>484</v>
-      </c>
-      <c r="E109" s="18"/>
-      <c r="F109" s="8">
-        <v>52</v>
-      </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="8">
-        <v>432</v>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="18">
+        <v>480</v>
+      </c>
+      <c r="E102" s="18"/>
+      <c r="F102" s="8">
+        <v>51</v>
+      </c>
+      <c r="G102" s="9"/>
+      <c r="H102" s="8">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="213">
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="D107:E107"/>
+  <mergeCells count="199">
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="A99:C99"/>
